--- a/MPPT_v.xlsx
+++ b/MPPT_v.xlsx
@@ -389,60 +389,60 @@
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F100"/>
+      <selection activeCell="B2" sqref="B2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>5.2407048243561363E-2</v>
+        <v>0.10849485459109259</v>
       </c>
       <c r="C2">
-        <v>2.4105883911745618</v>
+        <v>2.690681116424515</v>
       </c>
       <c r="D2">
-        <v>0.12633182211165422</v>
+        <v>0.29192505647747646</v>
       </c>
       <c r="E2">
-        <v>3.1305883911746175</v>
+        <v>3.4106811164245707</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3">
-        <v>8.087816464303732E-2</v>
+        <v>0.45856252774584932</v>
       </c>
       <c r="C3">
-        <v>2.582817919552673</v>
+        <v>3.1024563440819044</v>
       </c>
       <c r="D3">
-        <v>0.20889357294056821</v>
+        <v>1.4226702233633446</v>
       </c>
       <c r="E3">
-        <v>3.3028179195527287</v>
+        <v>3.8224563440819601</v>
       </c>
       <c r="F3">
-        <v>150</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>0.10849485459109259</v>
+        <v>1.4660956320900438</v>
       </c>
       <c r="C4">
-        <v>2.690681116424515</v>
+        <v>3.4127280909213566</v>
       </c>
       <c r="D4">
-        <v>0.29192505647747646</v>
+        <v>5.0033857476107952</v>
       </c>
       <c r="E4">
-        <v>3.4106811164245707</v>
+        <v>4.1327280909214128</v>
       </c>
       <c r="F4">
-        <v>200</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
